--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76F27305-F8B8-4ACE-A577-0CAD3504E6B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A8B1F-4E68-4400-9C73-14E892651243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="4170" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="0" yWindow="15" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,39 +25,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
-  <si>
-    <t>Tên đường giới hạn khu vực</t>
-  </si>
-  <si>
-    <t>Loại đất</t>
-  </si>
-  <si>
-    <t>Vị trí</t>
-  </si>
-  <si>
-    <t>Giá đất tại bảng</t>
-  </si>
-  <si>
-    <t>Giá đất cụ thể</t>
-  </si>
-  <si>
-    <t>Hệ số điều chỉnh</t>
-  </si>
-  <si>
-    <t>Hoàng Hoa Thám</t>
-  </si>
-  <si>
-    <t>Thổ cư</t>
-  </si>
-  <si>
-    <t>Lê Văn Lương</t>
-  </si>
-  <si>
-    <t>Trong Ngõ</t>
-  </si>
-  <si>
-    <t>Mặt Đường</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Bánh bò</t>
+  </si>
+  <si>
+    <t>Đơn vị tính</t>
+  </si>
+  <si>
+    <t>cái</t>
+  </si>
+  <si>
+    <t>Tên người sử dụng</t>
+  </si>
+  <si>
+    <t>Số lô</t>
+  </si>
+  <si>
+    <t>Số thửa</t>
+  </si>
+  <si>
+    <t>Tở bản đồ</t>
+  </si>
+  <si>
+    <t>Diện tích</t>
+  </si>
+  <si>
+    <t>Giá khởi điểm</t>
+  </si>
+  <si>
+    <t>Giá đấu giá</t>
+  </si>
+  <si>
+    <t>Giá tính tiền sử dụng đất</t>
+  </si>
+  <si>
+    <t>Nguyễn văn a</t>
+  </si>
+  <si>
+    <t>abc</t>
   </si>
 </sst>
 </file>
@@ -82,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -90,12 +99,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -410,82 +468,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A2:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
-    <col min="2" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14" style="12" customWidth="1"/>
+    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="9" width="14" style="9" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="9" customWidth="1"/>
+    <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="8">
+        <v>114124</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
+      <c r="H3" s="10">
+        <v>124</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1244124</v>
+      </c>
+      <c r="J3" s="10">
+        <v>124124214</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>5000</v>
-      </c>
-      <c r="E2">
-        <v>6000</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>6000</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973A8B1F-4E68-4400-9C73-14E892651243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3C328-27EC-44E3-9CA7-966C4625550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="15" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>STT</t>
   </si>
@@ -67,19 +67,30 @@
   </si>
   <si>
     <t>abc</t>
+  </si>
+  <si>
+    <t>GIÁ TRÚNG THẦU ĐẤT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -114,15 +125,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -136,22 +153,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -468,103 +491,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A2:J4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="14" style="12" customWidth="1"/>
-    <col min="4" max="4" width="14" style="14" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="4" max="4" width="14" style="10" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14" style="9" customWidth="1"/>
+    <col min="6" max="6" width="14" style="12" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="9" width="14" style="9" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="9" customWidth="1"/>
+    <col min="8" max="9" width="14" style="14" customWidth="1"/>
+    <col min="10" max="10" width="28.375" style="14" customWidth="1"/>
     <col min="11" max="11" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="11">
         <v>114124</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="13">
         <v>124</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="13">
         <v>1244124</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="13">
         <v>124124214</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="D3:D1048576 H3:J1048576" xr:uid="{6D81FF05-34AE-4C39-A308-043607B4896C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="F3:F1048576" xr:uid="{834D2932-646A-4282-A4C7-E6A09F49C08F}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3C328-27EC-44E3-9CA7-966C4625550D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20234E9D-24EF-485C-99ED-883E5BA87D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>STT</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>GIÁ TRÚNG THẦU ĐẤT</t>
+  </si>
+  <si>
+    <t>Mã xã phường(lấy trong chức năng danh mục xã phường)</t>
   </si>
 </sst>
 </file>
@@ -80,7 +83,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -89,7 +92,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -138,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +178,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -195,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -235,7 +244,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -341,7 +350,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -483,7 +492,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -491,27 +500,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14" style="10" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="14" style="12" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="14" style="14" customWidth="1"/>
-    <col min="10" max="10" width="28.375" style="14" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
+    <col min="10" max="10" width="28.42578125" style="14" customWidth="1"/>
+    <col min="11" max="11" width="53.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -523,9 +532,9 @@
       <c r="G1" s="15"/>
       <c r="H1" s="15"/>
       <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -556,8 +565,11 @@
       <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
+      <c r="K2" s="17" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -588,8 +600,9 @@
       <c r="J3" s="13">
         <v>124124214</v>
       </c>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -600,6 +613,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
+      <c r="K4" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaTrungThauDat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20234E9D-24EF-485C-99ED-883E5BA87D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ED46A59-CBF7-4031-9052-A3FF2CE0FFB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <t>GIÁ TRÚNG THẦU ĐẤT</t>
   </si>
   <si>
-    <t>Mã xã phường(lấy trong chức năng danh mục xã phường)</t>
+    <t>Bắt buộc khi không chọn xã phường ở form nhận excell, Mã xã phường(lấy trong chức năng danh mục địa bàn)</t>
   </si>
 </sst>
 </file>
@@ -141,7 +141,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -180,10 +180,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -503,7 +500,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +513,8 @@
     <col min="6" max="6" width="14" style="12" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="9" width="14" style="14" customWidth="1"/>
-    <col min="10" max="10" width="28.42578125" style="14" customWidth="1"/>
-    <col min="11" max="11" width="53.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="86.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -565,7 +562,7 @@
       <c r="J2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="8" t="s">
         <v>15</v>
       </c>
     </row>
